--- a/Task - 2/Report.xlsx
+++ b/Task - 2/Report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\1. PROJECTS\BCG X - GEN AI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\1. PROJECTS\BCG X - GEN AI\Task - 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABC30FD-E4D4-433B-A90A-813B14142F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B65295E-3116-4343-8A7E-8F15AD2079BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6752B17F-B3F3-451F-8F16-71773EE955E6}"/>
   </bookViews>
@@ -89,7 +89,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -142,7 +142,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -462,7 +462,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -504,22 +504,22 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3">
-        <v>211915</v>
+        <v>168088</v>
       </c>
       <c r="D2" s="3">
-        <v>72361</v>
+        <v>61271</v>
       </c>
       <c r="E2" s="3">
-        <v>411976</v>
+        <v>336289</v>
       </c>
       <c r="F2" s="3">
-        <v>205753</v>
+        <v>177057</v>
       </c>
       <c r="G2" s="3">
-        <v>87582</v>
+        <v>76740</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -550,22 +550,22 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3">
-        <v>168088</v>
+        <v>211915</v>
       </c>
       <c r="D4" s="3">
-        <v>61271</v>
+        <v>72361</v>
       </c>
       <c r="E4" s="3">
-        <v>336289</v>
+        <v>411976</v>
       </c>
       <c r="F4" s="3">
-        <v>177057</v>
+        <v>205753</v>
       </c>
       <c r="G4" s="3">
-        <v>76740</v>
+        <v>87582</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -573,22 +573,22 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3">
-        <v>96773</v>
+        <v>53823</v>
       </c>
       <c r="D5" s="3">
-        <v>14997</v>
+        <v>5519</v>
       </c>
       <c r="E5" s="3">
-        <v>106618</v>
+        <v>62131</v>
       </c>
       <c r="F5" s="3">
-        <v>43009</v>
+        <v>30548</v>
       </c>
       <c r="G5" s="3">
-        <v>13256</v>
+        <v>11497</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -619,22 +619,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3">
-        <v>53823</v>
+        <v>96773</v>
       </c>
       <c r="D7" s="3">
-        <v>5519</v>
+        <v>14997</v>
       </c>
       <c r="E7" s="3">
-        <v>62131</v>
+        <v>106618</v>
       </c>
       <c r="F7" s="3">
-        <v>30548</v>
+        <v>43009</v>
       </c>
       <c r="G7" s="3">
-        <v>11497</v>
+        <v>13256</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -642,22 +642,22 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3">
-        <v>383285</v>
+        <v>365817</v>
       </c>
       <c r="D8" s="3">
-        <v>96995</v>
+        <v>94680</v>
       </c>
       <c r="E8" s="3">
-        <v>352583</v>
+        <v>351002</v>
       </c>
       <c r="F8" s="3">
-        <v>290437</v>
+        <v>287912</v>
       </c>
       <c r="G8" s="3">
-        <v>110543</v>
+        <v>104038</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -688,22 +688,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" s="3">
-        <v>365817</v>
+        <v>383285</v>
       </c>
       <c r="D10" s="3">
-        <v>94680</v>
+        <v>96995</v>
       </c>
       <c r="E10" s="3">
-        <v>351002</v>
+        <v>352583</v>
       </c>
       <c r="F10" s="3">
-        <v>287912</v>
+        <v>290437</v>
       </c>
       <c r="G10" s="3">
-        <v>104038</v>
+        <v>110543</v>
       </c>
     </row>
   </sheetData>
